--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H2">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I2">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J2">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.715641666666667</v>
+        <v>3.478915</v>
       </c>
       <c r="N2">
-        <v>8.146925</v>
+        <v>10.436745</v>
       </c>
       <c r="O2">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131295</v>
       </c>
       <c r="P2">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131294</v>
       </c>
       <c r="Q2">
-        <v>6.148874444686111</v>
+        <v>14.137312111395</v>
       </c>
       <c r="R2">
-        <v>55.339870002175</v>
+        <v>127.235809002555</v>
       </c>
       <c r="S2">
-        <v>0.07567057949968704</v>
+        <v>0.115000489737987</v>
       </c>
       <c r="T2">
-        <v>0.075670579499687</v>
+        <v>0.115000489737987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H3">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I3">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J3">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.812157</v>
       </c>
       <c r="O3">
-        <v>0.65034187002831</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="P3">
-        <v>0.6503418700283099</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="Q3">
-        <v>21.74591467008522</v>
+        <v>39.028112319647</v>
       </c>
       <c r="R3">
-        <v>195.713232030767</v>
+        <v>351.253010876823</v>
       </c>
       <c r="S3">
-        <v>0.2676141755111241</v>
+        <v>0.3174756272580934</v>
       </c>
       <c r="T3">
-        <v>0.267614175511124</v>
+        <v>0.3174756272580934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H4">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I4">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J4">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.422560333333333</v>
+        <v>1.465966333333333</v>
       </c>
       <c r="N4">
-        <v>4.267681000000001</v>
+        <v>4.397899</v>
       </c>
       <c r="O4">
-        <v>0.09632918639948715</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="P4">
-        <v>0.09632918639948714</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="Q4">
-        <v>3.221023225201223</v>
+        <v>5.957266446328999</v>
       </c>
       <c r="R4">
-        <v>28.989209026811</v>
+        <v>53.615398016961</v>
       </c>
       <c r="S4">
-        <v>0.03963923742882178</v>
+        <v>0.04845960486897047</v>
       </c>
       <c r="T4">
-        <v>0.03963923742882177</v>
+        <v>0.04845960486897048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H5">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I5">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J5">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.025443666666667</v>
+        <v>0.7733783333333334</v>
       </c>
       <c r="N5">
-        <v>3.076331</v>
+        <v>2.320135</v>
       </c>
       <c r="O5">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269938</v>
       </c>
       <c r="P5">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269937</v>
       </c>
       <c r="Q5">
-        <v>2.321854327773444</v>
+        <v>3.142787587085</v>
       </c>
       <c r="R5">
-        <v>20.896688949961</v>
+        <v>28.285088283765</v>
       </c>
       <c r="S5">
-        <v>0.02857369492205362</v>
+        <v>0.02556512219645535</v>
       </c>
       <c r="T5">
-        <v>0.02857369492205362</v>
+        <v>0.02556512219645536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J6">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.715641666666667</v>
+        <v>3.478915</v>
       </c>
       <c r="N6">
-        <v>8.146925</v>
+        <v>10.436745</v>
       </c>
       <c r="O6">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131295</v>
       </c>
       <c r="P6">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131294</v>
       </c>
       <c r="Q6">
-        <v>5.673596418394444</v>
+        <v>7.268248946896667</v>
       </c>
       <c r="R6">
-        <v>51.06236776555</v>
+        <v>65.41424052207</v>
       </c>
       <c r="S6">
-        <v>0.06982161250638005</v>
+        <v>0.05912384064556436</v>
       </c>
       <c r="T6">
-        <v>0.06982161250638003</v>
+        <v>0.05912384064556436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J7">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.812157</v>
       </c>
       <c r="O7">
-        <v>0.65034187002831</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="P7">
-        <v>0.6503418700283099</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="Q7">
         <v>20.06506145096689</v>
@@ -883,10 +883,10 @@
         <v>180.585553058702</v>
       </c>
       <c r="S7">
-        <v>0.2469289040376566</v>
+        <v>0.1632199866072211</v>
       </c>
       <c r="T7">
-        <v>0.2469289040376565</v>
+        <v>0.1632199866072211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J8">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.422560333333333</v>
+        <v>1.465966333333333</v>
       </c>
       <c r="N8">
-        <v>4.267681000000001</v>
+        <v>4.397899</v>
       </c>
       <c r="O8">
-        <v>0.09632918639948715</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="P8">
-        <v>0.09632918639948714</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="Q8">
-        <v>2.972053828462889</v>
+        <v>3.062738887968222</v>
       </c>
       <c r="R8">
-        <v>26.748484456166</v>
+        <v>27.564649991714</v>
       </c>
       <c r="S8">
-        <v>0.03657531756863364</v>
+        <v>0.02491396308439909</v>
       </c>
       <c r="T8">
-        <v>0.03657531756863362</v>
+        <v>0.0249139630843991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J9">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.025443666666667</v>
+        <v>0.7733783333333334</v>
       </c>
       <c r="N9">
-        <v>3.076331</v>
+        <v>2.320135</v>
       </c>
       <c r="O9">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269938</v>
       </c>
       <c r="P9">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269937</v>
       </c>
       <c r="Q9">
-        <v>2.142386304451778</v>
+        <v>1.615764184178889</v>
       </c>
       <c r="R9">
-        <v>19.281476740066</v>
+        <v>14.54187765761</v>
       </c>
       <c r="S9">
-        <v>0.0263650875665806</v>
+        <v>0.01314349368660406</v>
       </c>
       <c r="T9">
-        <v>0.0263650875665806</v>
+        <v>0.01314349368660406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H10">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.715641666666667</v>
+        <v>3.478915</v>
       </c>
       <c r="N10">
-        <v>8.146925</v>
+        <v>10.436745</v>
       </c>
       <c r="O10">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131295</v>
       </c>
       <c r="P10">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131294</v>
       </c>
       <c r="Q10">
-        <v>2.602759684294444</v>
+        <v>5.525756673378333</v>
       </c>
       <c r="R10">
-        <v>23.42483715865</v>
+        <v>49.731810060405</v>
       </c>
       <c r="S10">
-        <v>0.03203063184664477</v>
+        <v>0.04494947261574984</v>
       </c>
       <c r="T10">
-        <v>0.03203063184664475</v>
+        <v>0.04494947261574984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H11">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I11">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J11">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.812157</v>
       </c>
       <c r="O11">
-        <v>0.65034187002831</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="P11">
-        <v>0.6503418700283099</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="Q11">
-        <v>9.204837488642889</v>
+        <v>15.25465734931478</v>
       </c>
       <c r="R11">
-        <v>82.84353739778599</v>
+        <v>137.291916143833</v>
       </c>
       <c r="S11">
-        <v>0.1132785184072185</v>
+        <v>0.1240895760193609</v>
       </c>
       <c r="T11">
-        <v>0.1132785184072185</v>
+        <v>0.1240895760193609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H12">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I12">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J12">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.422560333333333</v>
+        <v>1.465966333333333</v>
       </c>
       <c r="N12">
-        <v>4.267681000000001</v>
+        <v>4.397899</v>
       </c>
       <c r="O12">
-        <v>0.09632918639948715</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="P12">
-        <v>0.09632918639948714</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="Q12">
-        <v>1.363428293770889</v>
+        <v>2.328476910003444</v>
       </c>
       <c r="R12">
-        <v>12.270854643938</v>
+        <v>20.956292190031</v>
       </c>
       <c r="S12">
-        <v>0.0167789097051858</v>
+        <v>0.01894108179009199</v>
       </c>
       <c r="T12">
-        <v>0.01677890970518579</v>
+        <v>0.01894108179009199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H13">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I13">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J13">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.025443666666667</v>
+        <v>0.7733783333333334</v>
       </c>
       <c r="N13">
-        <v>3.076331</v>
+        <v>2.320135</v>
       </c>
       <c r="O13">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269938</v>
       </c>
       <c r="P13">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269937</v>
       </c>
       <c r="Q13">
-        <v>0.9828187079597777</v>
+        <v>1.228400373812778</v>
       </c>
       <c r="R13">
-        <v>8.845368371638001</v>
+        <v>11.055603364315</v>
       </c>
       <c r="S13">
-        <v>0.01209497150144632</v>
+        <v>0.009992468403447891</v>
       </c>
       <c r="T13">
-        <v>0.01209497150144631</v>
+        <v>0.009992468403447891</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H14">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I14">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J14">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.715641666666667</v>
+        <v>3.478915</v>
       </c>
       <c r="N14">
-        <v>8.146925</v>
+        <v>10.436745</v>
       </c>
       <c r="O14">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131295</v>
       </c>
       <c r="P14">
-        <v>0.1838906555826552</v>
+        <v>0.2270489597131294</v>
       </c>
       <c r="Q14">
-        <v>0.5174401735944444</v>
+        <v>0.98040695181</v>
       </c>
       <c r="R14">
-        <v>4.656961562349999</v>
+        <v>8.82366256629</v>
       </c>
       <c r="S14">
-        <v>0.006367831729943391</v>
+        <v>0.007975156713828233</v>
       </c>
       <c r="T14">
-        <v>0.00636783172994339</v>
+        <v>0.007975156713828233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H15">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I15">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J15">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.812157</v>
       </c>
       <c r="O15">
-        <v>0.65034187002831</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="P15">
-        <v>0.6503418700283099</v>
+        <v>0.6268017733442142</v>
       </c>
       <c r="Q15">
-        <v>1.829962534294889</v>
+        <v>2.706556404266</v>
       </c>
       <c r="R15">
-        <v>16.469662808654</v>
+        <v>24.359007638394</v>
       </c>
       <c r="S15">
-        <v>0.02252027207231079</v>
+        <v>0.02201658345953869</v>
       </c>
       <c r="T15">
-        <v>0.02252027207231078</v>
+        <v>0.02201658345953869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H16">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I16">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J16">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.422560333333333</v>
+        <v>1.465966333333333</v>
       </c>
       <c r="N16">
-        <v>4.267681000000001</v>
+        <v>4.397899</v>
       </c>
       <c r="O16">
-        <v>0.09632918639948715</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="P16">
-        <v>0.09632918639948714</v>
+        <v>0.09567526971995696</v>
       </c>
       <c r="Q16">
-        <v>0.2710555942868889</v>
+        <v>0.413129836262</v>
       </c>
       <c r="R16">
-        <v>2.439500348582</v>
+        <v>3.718168526358</v>
       </c>
       <c r="S16">
-        <v>0.003335721696845932</v>
+        <v>0.003360619976495398</v>
       </c>
       <c r="T16">
-        <v>0.003335721696845931</v>
+        <v>0.003360619976495399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H17">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I17">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J17">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.025443666666667</v>
+        <v>0.7733783333333334</v>
       </c>
       <c r="N17">
-        <v>3.076331</v>
+        <v>2.320135</v>
       </c>
       <c r="O17">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269938</v>
       </c>
       <c r="P17">
-        <v>0.06943828798954764</v>
+        <v>0.05047399722269937</v>
       </c>
       <c r="Q17">
-        <v>0.1953887198757778</v>
+        <v>0.21794884163</v>
       </c>
       <c r="R17">
-        <v>1.758498478882</v>
+        <v>1.96153957467</v>
       </c>
       <c r="S17">
-        <v>0.002404533999467098</v>
+        <v>0.001772912936192066</v>
       </c>
       <c r="T17">
-        <v>0.002404533999467097</v>
+        <v>0.001772912936192066</v>
       </c>
     </row>
   </sheetData>
